--- a/total gvia.xlsx
+++ b/total gvia.xlsx
@@ -447,7 +447,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -474,12 +474,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s"/>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>228071</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -491,13 +493,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>14420</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>221071</v>
+        <v>315163</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -509,13 +511,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>14420</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>298367</v>
+        <v>230004</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -527,13 +529,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>224004</v>
+        <v>185964</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -545,13 +547,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>148714</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -563,13 +565,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1953</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -581,13 +583,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1953</v>
+        <v>161796</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -599,16 +601,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>146458</v>
+        <v>17540</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E9" s="2">
         <f>B9+C9+D9</f>
@@ -617,37 +619,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>17540</v>
+        <v>176550</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <f>B10+C10+D10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>169550</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f>B11+C11+D11</f>
         <v/>
       </c>
     </row>
